--- a/MexE_409_Robotics_2/Laboratory_Activities/2024-2025/Laboratory_1.xlsx
+++ b/MexE_409_Robotics_2/Laboratory_Activities/2024-2025/Laboratory_1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\Robotics_MEXE_3rdYearCourse\MexE_409_Robotics_2\Laboratory_Activities\2024-2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB36FCFF-7E8C-4753-B8BF-CAD3412E5759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FD634A-E187-4FD1-9A1C-A19A13329FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2520" windowWidth="38640" windowHeight="21240" xr2:uid="{D65C2CE3-8512-4348-A0AC-AC1794676AD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D65C2CE3-8512-4348-A0AC-AC1794676AD7}"/>
   </bookViews>
   <sheets>
     <sheet name="FK" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">FK!$A$1:$R$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FK!$A$1:$R$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>COLLEGE OF ENGINEERING</t>
   </si>
@@ -81,59 +81,6 @@
     </r>
   </si>
   <si>
-    <t>Part 1: Forward Kinematics</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Draw the kinematic diagram with labels of the  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(assigned mechanical manipulator)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Assign frames using D-H Frame Rules.</t>
-  </si>
-  <si>
-    <t>3. Obtain the Parametric Table.</t>
-  </si>
-  <si>
-    <t>4. Program the Forward Kinematics in Python and MATLAB.</t>
-  </si>
-  <si>
-    <t>5. Perform the experimentation of comparing the position vector from the Python program to the MATLAB program.</t>
-  </si>
-  <si>
-    <t>6. Provide the following as output of the experiment:</t>
-  </si>
-  <si>
-    <t>A. Kinematic Diagram with labels and frames.</t>
-  </si>
-  <si>
-    <t>B. Parametric Table</t>
-  </si>
-  <si>
-    <t>C. Python and MATLAB codes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. 5 trials in table for the comparison of Forward Kinematics in MATLAB and Python </t>
-  </si>
-  <si>
     <t>All outputs will be submitted on your created repository in Github titled:</t>
   </si>
   <si>
@@ -182,12 +129,47 @@
   <si>
     <t xml:space="preserve">Materials: </t>
   </si>
+  <si>
+    <t>1. 3-DOF SPARTAN Robotkit assembled</t>
+  </si>
+  <si>
+    <t>2. Arduino UNO</t>
+  </si>
+  <si>
+    <t>3. 4 Potentiometers: 10K ohms</t>
+  </si>
+  <si>
+    <t>4. 1 Breadboard</t>
+  </si>
+  <si>
+    <t>5. Jumper Wires</t>
+  </si>
+  <si>
+    <t>6. Soldering iron with soldering lead</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Write this laboratory instructions and procedures in a Github repository.
+Repository title:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Robotics2_FKSPARTANRobotkit_Group#_Laboratory1_2025</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,20 +220,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
@@ -276,10 +244,142 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -288,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -299,15 +399,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -315,16 +412,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -782,80 +929,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB94D5A1-558C-436F-904F-23DEAE181BE7}">
-  <dimension ref="A12:S45"/>
+  <dimension ref="A12:S50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:19" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
@@ -877,569 +1024,656 @@
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="A16" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
     </row>
     <row r="17" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="19" spans="1:17" ht="39.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
     </row>
     <row r="23" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="3"/>
-      <c r="B26" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="3"/>
-      <c r="B28" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="3"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="30"/>
     </row>
     <row r="30" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
-      <c r="B30" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" ht="58" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
-      <c r="B32" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
+      <c r="B32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
-      <c r="B33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
+      <c r="B33" s="7">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
-      <c r="B34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
-      <c r="B36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-    </row>
-    <row r="37" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-    </row>
-    <row r="38" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+    </row>
+    <row r="38" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
-      <c r="B38" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
-      <c r="B39" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
     </row>
     <row r="40" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
-      <c r="B40" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
     </row>
     <row r="41" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
-      <c r="B41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+    </row>
+    <row r="42" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
     </row>
     <row r="44" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B45" s="6" t="s">
-        <v>17</v>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B50" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B40:O40"/>
-    <mergeCell ref="B42:N42"/>
-    <mergeCell ref="B43:O43"/>
-    <mergeCell ref="B32:Q32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B34:O35"/>
-    <mergeCell ref="B36:Q36"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="B39:O39"/>
-    <mergeCell ref="B30:O30"/>
+  <mergeCells count="28">
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B35:O35"/>
     <mergeCell ref="A12:Q12"/>
     <mergeCell ref="A13:Q13"/>
     <mergeCell ref="A14:Q14"/>
@@ -1447,10 +1681,23 @@
     <mergeCell ref="B18:Q18"/>
     <mergeCell ref="B19:Q19"/>
     <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B34:O34"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B45:O45"/>
+    <mergeCell ref="B47:N47"/>
+    <mergeCell ref="B48:O48"/>
+    <mergeCell ref="B37:Q37"/>
+    <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B39:O40"/>
+    <mergeCell ref="B41:Q41"/>
+    <mergeCell ref="B43:I43"/>
+    <mergeCell ref="B44:O44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
